--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/B2m-Gm11127.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/B2m-Gm11127.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1175.531921666667</v>
+        <v>1416.977457666667</v>
       </c>
       <c r="H2">
-        <v>3526.595765</v>
+        <v>4250.932373</v>
       </c>
       <c r="I2">
-        <v>0.1298825435482203</v>
+        <v>0.1031800631271045</v>
       </c>
       <c r="J2">
-        <v>0.1311729122468746</v>
+        <v>0.1039170487194107</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.03245033333333333</v>
+        <v>0.02669033333333333</v>
       </c>
       <c r="N2">
-        <v>0.09735099999999999</v>
+        <v>0.080071</v>
       </c>
       <c r="O2">
-        <v>0.07982567268940466</v>
+        <v>0.03151215526754497</v>
       </c>
       <c r="P2">
-        <v>0.07982567268940466</v>
+        <v>0.03167738918590879</v>
       </c>
       <c r="Q2">
-        <v>38.14640270205722</v>
+        <v>37.81960067094256</v>
       </c>
       <c r="R2">
-        <v>343.317624318515</v>
+        <v>340.376406038483</v>
       </c>
       <c r="S2">
-        <v>0.01036796140934758</v>
+        <v>0.003251426169776409</v>
       </c>
       <c r="T2">
-        <v>0.01047096595873501</v>
+        <v>0.003291820795335816</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,46 +602,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1175.531921666667</v>
+        <v>1416.977457666667</v>
       </c>
       <c r="H3">
-        <v>3526.595765</v>
+        <v>4250.932373</v>
       </c>
       <c r="I3">
-        <v>0.1298825435482203</v>
+        <v>0.1031800631271045</v>
       </c>
       <c r="J3">
-        <v>0.1311729122468746</v>
+        <v>0.1039170487194107</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.3298823333333333</v>
+        <v>0.5872193333333333</v>
       </c>
       <c r="N3">
-        <v>0.9896469999999999</v>
+        <v>1.761658</v>
       </c>
       <c r="O3">
-        <v>0.8114887109536755</v>
+        <v>0.6933051969416235</v>
       </c>
       <c r="P3">
-        <v>0.8114887109536754</v>
+        <v>0.6969405412505114</v>
       </c>
       <c r="Q3">
-        <v>387.7872132272173</v>
+        <v>832.0765580393816</v>
       </c>
       <c r="R3">
-        <v>3490.084919044955</v>
+        <v>7488.689022354433</v>
       </c>
       <c r="S3">
-        <v>0.1053982178393299</v>
+        <v>0.07153527398678634</v>
       </c>
       <c r="T3">
-        <v>0.1064453374712559</v>
+        <v>0.07242400417966184</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,51 +664,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1175.531921666667</v>
+        <v>1416.977457666667</v>
       </c>
       <c r="H4">
-        <v>3526.595765</v>
+        <v>4250.932373</v>
       </c>
       <c r="I4">
-        <v>0.1298825435482203</v>
+        <v>0.1031800631271045</v>
       </c>
       <c r="J4">
-        <v>0.1311729122468746</v>
+        <v>0.1039170487194107</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
-        <v>0.04418233333333333</v>
+        <v>0.013254</v>
       </c>
       <c r="N4">
-        <v>0.132547</v>
+        <v>0.026508</v>
       </c>
       <c r="O4">
-        <v>0.10868561635692</v>
+        <v>0.01564844098048136</v>
       </c>
       <c r="P4">
-        <v>0.10868561635692</v>
+        <v>0.01048699569806884</v>
       </c>
       <c r="Q4">
-        <v>51.93774320705055</v>
+        <v>18.780619223914</v>
       </c>
       <c r="R4">
-        <v>467.439688863455</v>
+        <v>112.683715343484</v>
       </c>
       <c r="S4">
-        <v>0.01411636429954283</v>
+        <v>0.001614607128206836</v>
       </c>
       <c r="T4">
-        <v>0.01425660881688375</v>
+        <v>0.00108977764287647</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1358.281941333333</v>
+        <v>1416.977457666667</v>
       </c>
       <c r="H5">
-        <v>4074.845824</v>
+        <v>4250.932373</v>
       </c>
       <c r="I5">
-        <v>0.1500742856441228</v>
+        <v>0.1031800631271045</v>
       </c>
       <c r="J5">
-        <v>0.1515652570662845</v>
+        <v>0.1039170487194107</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,28 +744,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.03245033333333333</v>
+        <v>0.2198216666666667</v>
       </c>
       <c r="N5">
-        <v>0.09735099999999999</v>
+        <v>0.659465</v>
       </c>
       <c r="O5">
-        <v>0.07982567268940466</v>
+        <v>0.2595342068103501</v>
       </c>
       <c r="P5">
-        <v>0.07982567268940466</v>
+        <v>0.2608950738655111</v>
       </c>
       <c r="Q5">
-        <v>44.07670175691378</v>
+        <v>311.4823463733828</v>
       </c>
       <c r="R5">
-        <v>396.690315812224</v>
+        <v>2803.341117360445</v>
       </c>
       <c r="S5">
-        <v>0.01197978080492397</v>
+        <v>0.02677875584233493</v>
       </c>
       <c r="T5">
-        <v>0.01209879860165871</v>
+        <v>0.02711144610153656</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -794,10 +794,10 @@
         <v>4074.845824</v>
       </c>
       <c r="I6">
-        <v>0.1500742856441228</v>
+        <v>0.09890603106838422</v>
       </c>
       <c r="J6">
-        <v>0.1515652570662845</v>
+        <v>0.09961248847575943</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,28 +806,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.3298823333333333</v>
+        <v>0.02669033333333333</v>
       </c>
       <c r="N6">
-        <v>0.9896469999999999</v>
+        <v>0.080071</v>
       </c>
       <c r="O6">
-        <v>0.8114887109536755</v>
+        <v>0.03151215526754497</v>
       </c>
       <c r="P6">
-        <v>0.8114887109536754</v>
+        <v>0.03167738918590879</v>
       </c>
       <c r="Q6">
-        <v>448.0732161315698</v>
+        <v>36.25299777483378</v>
       </c>
       <c r="R6">
-        <v>4032.658945184128</v>
+        <v>326.276979973504</v>
       </c>
       <c r="S6">
-        <v>0.1217835886046429</v>
+        <v>0.00311674220792355</v>
       </c>
       <c r="T6">
-        <v>0.1229934950820817</v>
+        <v>0.003155463565223485</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,45 +856,45 @@
         <v>4074.845824</v>
       </c>
       <c r="I7">
-        <v>0.1500742856441228</v>
+        <v>0.09890603106838422</v>
       </c>
       <c r="J7">
-        <v>0.1515652570662845</v>
+        <v>0.09961248847575943</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.04418233333333333</v>
+        <v>0.5872193333333333</v>
       </c>
       <c r="N7">
-        <v>0.132547</v>
+        <v>1.761658</v>
       </c>
       <c r="O7">
-        <v>0.10868561635692</v>
+        <v>0.6933051969416235</v>
       </c>
       <c r="P7">
-        <v>0.10868561635692</v>
+        <v>0.6969405412505114</v>
       </c>
       <c r="Q7">
-        <v>60.01206549263645</v>
+        <v>797.6094160684657</v>
       </c>
       <c r="R7">
-        <v>540.108589433728</v>
+        <v>7178.484744616192</v>
       </c>
       <c r="S7">
-        <v>0.01631091623455596</v>
+        <v>0.06857206534858046</v>
       </c>
       <c r="T7">
-        <v>0.01647296338254416</v>
+        <v>0.06942398163360611</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,51 +912,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3713.149007333333</v>
+        <v>1358.281941333333</v>
       </c>
       <c r="H8">
-        <v>11139.447022</v>
+        <v>4074.845824</v>
       </c>
       <c r="I8">
-        <v>0.4102595844119969</v>
+        <v>0.09890603106838422</v>
       </c>
       <c r="J8">
-        <v>0.4143354679879265</v>
+        <v>0.09961248847575943</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.03245033333333333</v>
+        <v>0.013254</v>
       </c>
       <c r="N8">
-        <v>0.09735099999999999</v>
+        <v>0.026508</v>
       </c>
       <c r="O8">
-        <v>0.07982567268940466</v>
+        <v>0.01564844098048136</v>
       </c>
       <c r="P8">
-        <v>0.07982567268940466</v>
+        <v>0.01048699569806884</v>
       </c>
       <c r="Q8">
-        <v>120.4929230043024</v>
+        <v>18.002668850432</v>
       </c>
       <c r="R8">
-        <v>1084.436307038722</v>
+        <v>108.016013102592</v>
       </c>
       <c r="S8">
-        <v>0.03274924730296325</v>
+        <v>0.001547725189787266</v>
       </c>
       <c r="T8">
-        <v>0.03307460745121552</v>
+        <v>0.001044635738119221</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3713.149007333333</v>
+        <v>1358.281941333333</v>
       </c>
       <c r="H9">
-        <v>11139.447022</v>
+        <v>4074.845824</v>
       </c>
       <c r="I9">
-        <v>0.4102595844119969</v>
+        <v>0.09890603106838422</v>
       </c>
       <c r="J9">
-        <v>0.4143354679879265</v>
+        <v>0.09961248847575943</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,28 +992,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.3298823333333333</v>
+        <v>0.2198216666666667</v>
       </c>
       <c r="N9">
-        <v>0.9896469999999999</v>
+        <v>0.659465</v>
       </c>
       <c r="O9">
-        <v>0.8114887109536755</v>
+        <v>0.2595342068103501</v>
       </c>
       <c r="P9">
-        <v>0.8114887109536754</v>
+        <v>0.2608950738655111</v>
       </c>
       <c r="Q9">
-        <v>1224.902258553471</v>
+        <v>298.5798001471289</v>
       </c>
       <c r="R9">
-        <v>11024.12032698123</v>
+        <v>2687.21820132416</v>
       </c>
       <c r="S9">
-        <v>0.332921021310882</v>
+        <v>0.02566949832209294</v>
       </c>
       <c r="T9">
-        <v>0.3362285548199103</v>
+        <v>0.02598840753881063</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3713.149007333333</v>
+        <v>5656.041829666666</v>
       </c>
       <c r="H10">
-        <v>11139.447022</v>
+        <v>16968.125489</v>
       </c>
       <c r="I10">
-        <v>0.4102595844119969</v>
+        <v>0.4118560601490074</v>
       </c>
       <c r="J10">
-        <v>0.4143354679879265</v>
+        <v>0.4147978298401142</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1054,33 +1054,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.04418233333333333</v>
+        <v>0.02669033333333333</v>
       </c>
       <c r="N10">
-        <v>0.132547</v>
+        <v>0.080071</v>
       </c>
       <c r="O10">
-        <v>0.10868561635692</v>
+        <v>0.03151215526754497</v>
       </c>
       <c r="P10">
-        <v>0.10868561635692</v>
+        <v>0.03167738918590879</v>
       </c>
       <c r="Q10">
-        <v>164.0555871583371</v>
+        <v>150.9616417810799</v>
       </c>
       <c r="R10">
-        <v>1476.500284425034</v>
+        <v>1358.654776029719</v>
       </c>
       <c r="S10">
-        <v>0.04458931579815174</v>
+        <v>0.01297847211529486</v>
       </c>
       <c r="T10">
-        <v>0.04503230571680069</v>
+        <v>0.01313971228931567</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,122 +1089,122 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>267.1004105</v>
+        <v>5656.041829666666</v>
       </c>
       <c r="H11">
-        <v>534.2008209999999</v>
+        <v>16968.125489</v>
       </c>
       <c r="I11">
-        <v>0.02951147481331513</v>
+        <v>0.4118560601490074</v>
       </c>
       <c r="J11">
-        <v>0.01986977870009475</v>
+        <v>0.4147978298401142</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.03245033333333333</v>
+        <v>0.5872193333333333</v>
       </c>
       <c r="N11">
-        <v>0.09735099999999999</v>
+        <v>1.761658</v>
       </c>
       <c r="O11">
-        <v>0.07982567268940466</v>
+        <v>0.6933051969416235</v>
       </c>
       <c r="P11">
-        <v>0.07982567268940466</v>
+        <v>0.6969405412505114</v>
       </c>
       <c r="Q11">
-        <v>8.667497354195165</v>
+        <v>3321.337112522306</v>
       </c>
       <c r="R11">
-        <v>52.00498412517099</v>
+        <v>29892.03401270076</v>
       </c>
       <c r="S11">
-        <v>0.002355773329029303</v>
+        <v>0.2855419468932087</v>
       </c>
       <c r="T11">
-        <v>0.001586118450924668</v>
+        <v>0.2890894240383067</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>267.1004105</v>
+        <v>5656.041829666666</v>
       </c>
       <c r="H12">
-        <v>534.2008209999999</v>
+        <v>16968.125489</v>
       </c>
       <c r="I12">
-        <v>0.02951147481331513</v>
+        <v>0.4118560601490074</v>
       </c>
       <c r="J12">
-        <v>0.01986977870009475</v>
+        <v>0.4147978298401142</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M12">
-        <v>0.3298823333333333</v>
+        <v>0.013254</v>
       </c>
       <c r="N12">
-        <v>0.9896469999999999</v>
+        <v>0.026508</v>
       </c>
       <c r="O12">
-        <v>0.8114887109536755</v>
+        <v>0.01564844098048136</v>
       </c>
       <c r="P12">
-        <v>0.8114887109536754</v>
+        <v>0.01048699569806884</v>
       </c>
       <c r="Q12">
-        <v>88.11170665003115</v>
+        <v>74.96517841040199</v>
       </c>
       <c r="R12">
-        <v>528.6702399001869</v>
+        <v>449.7910704624119</v>
       </c>
       <c r="S12">
-        <v>0.02394822865459896</v>
+        <v>0.006444905249695325</v>
       </c>
       <c r="T12">
-        <v>0.01612410110427468</v>
+        <v>0.004349983057101568</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1216,22 +1216,22 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>267.1004105</v>
+        <v>5656.041829666666</v>
       </c>
       <c r="H13">
-        <v>534.2008209999999</v>
+        <v>16968.125489</v>
       </c>
       <c r="I13">
-        <v>0.02951147481331513</v>
+        <v>0.4118560601490074</v>
       </c>
       <c r="J13">
-        <v>0.01986977870009475</v>
+        <v>0.4147978298401142</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1240,33 +1240,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.04418233333333333</v>
+        <v>0.2198216666666667</v>
       </c>
       <c r="N13">
-        <v>0.132547</v>
+        <v>0.659465</v>
       </c>
       <c r="O13">
-        <v>0.10868561635692</v>
+        <v>0.2595342068103501</v>
       </c>
       <c r="P13">
-        <v>0.10868561635692</v>
+        <v>0.2608950738655111</v>
       </c>
       <c r="Q13">
-        <v>11.80111937018116</v>
+        <v>1243.320541733709</v>
       </c>
       <c r="R13">
-        <v>70.80671622108699</v>
+        <v>11189.88487560338</v>
       </c>
       <c r="S13">
-        <v>0.003207472829686875</v>
+        <v>0.1068907358908085</v>
       </c>
       <c r="T13">
-        <v>0.002159559144895399</v>
+        <v>0.1082187104553903</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1278,22 +1278,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2536.667399</v>
+        <v>292.1868055</v>
       </c>
       <c r="H14">
-        <v>7610.002197</v>
+        <v>584.373611</v>
       </c>
       <c r="I14">
-        <v>0.2802721115823448</v>
+        <v>0.02127616983126987</v>
       </c>
       <c r="J14">
-        <v>0.2830565839988196</v>
+        <v>0.01428542627267643</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1302,33 +1302,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.03245033333333333</v>
+        <v>0.02669033333333333</v>
       </c>
       <c r="N14">
-        <v>0.09735099999999999</v>
+        <v>0.080071</v>
       </c>
       <c r="O14">
-        <v>0.07982567268940466</v>
+        <v>0.03151215526754497</v>
       </c>
       <c r="P14">
-        <v>0.07982567268940466</v>
+        <v>0.03167738918590879</v>
       </c>
       <c r="Q14">
-        <v>82.31570265334966</v>
+        <v>7.798563234396833</v>
       </c>
       <c r="R14">
-        <v>740.8413238801469</v>
+        <v>46.791379406381</v>
       </c>
       <c r="S14">
-        <v>0.02237290984314056</v>
+        <v>0.0006704579672216322</v>
       </c>
       <c r="T14">
-        <v>0.02259518222687075</v>
+        <v>0.0004525250077261775</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1340,114 +1340,424 @@
         <v>22</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2536.667399</v>
+        <v>292.1868055</v>
       </c>
       <c r="H15">
-        <v>7610.002197</v>
+        <v>584.373611</v>
       </c>
       <c r="I15">
-        <v>0.2802721115823448</v>
+        <v>0.02127616983126987</v>
       </c>
       <c r="J15">
-        <v>0.2830565839988196</v>
+        <v>0.01428542627267643</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.3298823333333333</v>
+        <v>0.5872193333333333</v>
       </c>
       <c r="N15">
-        <v>0.9896469999999999</v>
+        <v>1.761658</v>
       </c>
       <c r="O15">
-        <v>0.8114887109536755</v>
+        <v>0.6933051969416235</v>
       </c>
       <c r="P15">
-        <v>0.8114887109536754</v>
+        <v>0.6969405412505114</v>
       </c>
       <c r="Q15">
-        <v>836.8017604727177</v>
+        <v>171.5777411345063</v>
       </c>
       <c r="R15">
-        <v>7531.215844254459</v>
+        <v>1029.466446807038</v>
       </c>
       <c r="S15">
-        <v>0.2274376545442217</v>
+        <v>0.01475087911503198</v>
       </c>
       <c r="T15">
-        <v>0.2296972224761528</v>
+        <v>0.009956092718473383</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>292.1868055</v>
+      </c>
+      <c r="H16">
+        <v>584.373611</v>
+      </c>
+      <c r="I16">
+        <v>0.02127616983126987</v>
+      </c>
+      <c r="J16">
+        <v>0.01428542627267643</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.5</v>
+      </c>
+      <c r="M16">
+        <v>0.013254</v>
+      </c>
+      <c r="N16">
+        <v>0.026508</v>
+      </c>
+      <c r="O16">
+        <v>0.01564844098048136</v>
+      </c>
+      <c r="P16">
+        <v>0.01048699569806884</v>
+      </c>
+      <c r="Q16">
+        <v>3.872643920097</v>
+      </c>
+      <c r="R16">
+        <v>15.490575680388</v>
+      </c>
+      <c r="S16">
+        <v>0.0003329388878953246</v>
+      </c>
+      <c r="T16">
+        <v>0.0001498112038666372</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>292.1868055</v>
+      </c>
+      <c r="H17">
+        <v>584.373611</v>
+      </c>
+      <c r="I17">
+        <v>0.02127616983126987</v>
+      </c>
+      <c r="J17">
+        <v>0.01428542627267643</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.2198216666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.659465</v>
+      </c>
+      <c r="O17">
+        <v>0.2595342068103501</v>
+      </c>
+      <c r="P17">
+        <v>0.2608950738655111</v>
+      </c>
+      <c r="Q17">
+        <v>64.22899056301917</v>
+      </c>
+      <c r="R17">
+        <v>385.373943378115</v>
+      </c>
+      <c r="S17">
+        <v>0.005521893861120925</v>
+      </c>
+      <c r="T17">
+        <v>0.003726997342610229</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>2536.667399</v>
-      </c>
-      <c r="H16">
-        <v>7610.002197</v>
-      </c>
-      <c r="I16">
-        <v>0.2802721115823448</v>
-      </c>
-      <c r="J16">
-        <v>0.2830565839988196</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>5009.566731666667</v>
+      </c>
+      <c r="H18">
+        <v>15028.700195</v>
+      </c>
+      <c r="I18">
+        <v>0.3647816758242341</v>
+      </c>
+      <c r="J18">
+        <v>0.3673872066920393</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
         <v>0.3333333333333333</v>
       </c>
-      <c r="M16">
-        <v>0.04418233333333333</v>
-      </c>
-      <c r="N16">
-        <v>0.132547</v>
-      </c>
-      <c r="O16">
-        <v>0.10868561635692</v>
-      </c>
-      <c r="P16">
-        <v>0.10868561635692</v>
-      </c>
-      <c r="Q16">
-        <v>112.0758845784177</v>
-      </c>
-      <c r="R16">
-        <v>1008.682961205759</v>
-      </c>
-      <c r="S16">
-        <v>0.0304615471949826</v>
-      </c>
-      <c r="T16">
-        <v>0.030764179295796</v>
+      <c r="M18">
+        <v>0.02669033333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.080071</v>
+      </c>
+      <c r="O18">
+        <v>0.03151215526754497</v>
+      </c>
+      <c r="P18">
+        <v>0.03167738918590879</v>
+      </c>
+      <c r="Q18">
+        <v>133.7070059237606</v>
+      </c>
+      <c r="R18">
+        <v>1203.363053313845</v>
+      </c>
+      <c r="S18">
+        <v>0.01149505680732852</v>
+      </c>
+      <c r="T18">
+        <v>0.01163786752830764</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>5009.566731666667</v>
+      </c>
+      <c r="H19">
+        <v>15028.700195</v>
+      </c>
+      <c r="I19">
+        <v>0.3647816758242341</v>
+      </c>
+      <c r="J19">
+        <v>0.3673872066920393</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.5872193333333333</v>
+      </c>
+      <c r="N19">
+        <v>1.761658</v>
+      </c>
+      <c r="O19">
+        <v>0.6933051969416235</v>
+      </c>
+      <c r="P19">
+        <v>0.6969405412505114</v>
+      </c>
+      <c r="Q19">
+        <v>2941.714436458145</v>
+      </c>
+      <c r="R19">
+        <v>26475.42992812331</v>
+      </c>
+      <c r="S19">
+        <v>0.2529050315980161</v>
+      </c>
+      <c r="T19">
+        <v>0.2560470386804634</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>5009.566731666667</v>
+      </c>
+      <c r="H20">
+        <v>15028.700195</v>
+      </c>
+      <c r="I20">
+        <v>0.3647816758242341</v>
+      </c>
+      <c r="J20">
+        <v>0.3673872066920393</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.5</v>
+      </c>
+      <c r="M20">
+        <v>0.013254</v>
+      </c>
+      <c r="N20">
+        <v>0.026508</v>
+      </c>
+      <c r="O20">
+        <v>0.01564844098048136</v>
+      </c>
+      <c r="P20">
+        <v>0.01048699569806884</v>
+      </c>
+      <c r="Q20">
+        <v>66.39679746151</v>
+      </c>
+      <c r="R20">
+        <v>398.38078476906</v>
+      </c>
+      <c r="S20">
+        <v>0.005708264524896613</v>
+      </c>
+      <c r="T20">
+        <v>0.003852788056104943</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>5009.566731666667</v>
+      </c>
+      <c r="H21">
+        <v>15028.700195</v>
+      </c>
+      <c r="I21">
+        <v>0.3647816758242341</v>
+      </c>
+      <c r="J21">
+        <v>0.3673872066920393</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.2198216666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.659465</v>
+      </c>
+      <c r="O21">
+        <v>0.2595342068103501</v>
+      </c>
+      <c r="P21">
+        <v>0.2608950738655111</v>
+      </c>
+      <c r="Q21">
+        <v>1101.211308232853</v>
+      </c>
+      <c r="R21">
+        <v>9910.901774095675</v>
+      </c>
+      <c r="S21">
+        <v>0.09467332289399286</v>
+      </c>
+      <c r="T21">
+        <v>0.09584951242716337</v>
       </c>
     </row>
   </sheetData>
